--- a/All_ports_details.xlsx
+++ b/All_ports_details.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="225">
   <si>
     <t>City</t>
   </si>
@@ -19,7 +19,7 @@
     <t>State</t>
   </si>
   <si>
-    <t>Company Details</t>
+    <t>Company Detail</t>
   </si>
   <si>
     <t>Tollfree:\nPhone:\nFax</t>
@@ -52,170 +52,10 @@
     <t>Tollfree</t>
   </si>
   <si>
-    <t>AK</t>
-  </si>
-  <si>
-    <t>Anchorage</t>
-  </si>
-  <si>
-    <t>Lynden Transport
-Anchorage Service Center (ANC)
-3027 Rampart Dr.
-Anchorage, AK  99501   USA</t>
-  </si>
-  <si>
-    <t>800-327-9390
-907-276-4800
-907-257-5160</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Lynden is comprised of several different operating companies, one of which is Lynden Transport who offers trucking throughout Alaska.</t>
-  </si>
-  <si>
-    <t>SCAC="LTIA"    TruckerMC# 65802   USDOT# 8294</t>
-  </si>
-  <si>
-    <t>Approx 15 drivers  ELD=?</t>
-  </si>
-  <si>
-    <t>20/40/45' container sizes
-yes=Ocean Port drayage
-yes=Dry container drayage
-=Reefer drayage
-=Open Top drayage
-=Flat Rack drayage
-=OOG Out-Of-Gauge
-=Tank Endorsed Drivers
-=ISO Tank drayage</t>
-  </si>
-  <si>
-    <t>Anchorage terminals</t>
+    <t>Mobile</t>
   </si>
   <si>
     <t>AL</t>
-  </si>
-  <si>
-    <t>Huntsville</t>
-  </si>
-  <si>
-    <t>Friendly Enterprises, LLC
-451 Bradford Lane
-Huntsville, AL  35811   USA</t>
-  </si>
-  <si>
-    <t>404-900-8560
-x</t>
-  </si>
-  <si>
-    <t>SCAC="FEBT"    TruckerMC# 1317738   USDOT# 3731974
-USDOT Authority Date: for 'Paid' accounts</t>
-  </si>
-  <si>
-    <t>HAZ-MAT=no
-OVERWEIGHT PERMIT= no
-LIQUOR / ALCOHOL=no
-HOUSEHOLD GOODS=yes
-RESIDENTIAL DELIVERY=no
-CUSTOMS BONDED= no
-TSA / AIRPORT APPROVED= no
-AMAZON= yes
-TRANSLOAD SERVICE= no
-CHAINS / BINDERS= no</t>
-  </si>
-  <si>
-    <t>15-Jun-22</t>
-  </si>
-  <si>
-    <t>PRIVATE CHASSIS= no
-Other Equipment= no
-Approx 1 drivers  TWIC=yes  ELD=yes
-Owner Operators: 1
-FMSCA Safer Driver Count: for 'Paid' accounts
-MCS-150 Mileage (Year): for 'Paid' accounts
-Total Inspections: for 'Paid' accounts (two years prior 06/14/2022)
-Day Cabs: no
-Parking Space= yes</t>
-  </si>
-  <si>
-    <t>AL,FL,GA,MS,TN</t>
-  </si>
-  <si>
-    <t>20/40/45' container sizes
-yes=Rail Ramp drayage
-yes=Dry container drayage
-yes=Reefer drayage
-no=Open Top drayage
-no=Flat Rack drayage
-no=Tank Endorsed Drivers
-no=ISO Tank drayage</t>
-  </si>
-  <si>
-    <t>White Oak Logistics, Inc.
-2205 Hwy 20 West
-Decatur, AL  35601   USA</t>
-  </si>
-  <si>
-    <t> </t>
-  </si>
-  <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>Ann’s Boyz Logistics Inc
-1013 Downtowner Blvd
-Mobile, AL  36609   USA</t>
-  </si>
-  <si>
-    <t>877-789-2182
-770-862-5471
-x</t>
-  </si>
-  <si>
-    <t>twilliams@annsboyzlogisticsinc.com</t>
-  </si>
-  <si>
-    <t>We cover both Mobile &amp; New Orleans ports. We have secured storage yards 7 min. from each port. We handle 20's, 40's, and 45's ft legal as well as overweight containers. Call us today for quote(770)862-5471!!</t>
-  </si>
-  <si>
-    <t>SCAC="ABCE"    TruckerMC# 1328346   USDOT# 3362220
-USDOT Authority Date: for 'Paid' accounts</t>
-  </si>
-  <si>
-    <t>PRIVATE CHASSIS= yes (20,40,&amp; 45)
-Other Equipment= Reefer
-Approx 5 drivers  TWIC=yes  ELD=yes
-Company Drivers: 4  Owner Operators: 1
-FMSCA Safer Driver Count: for 'Paid' accounts
-MCS-150 Mileage (Year): for 'Paid' accounts
-Total Inspections: for 'Paid' accounts (two years prior 06/12/2022)
-Day Cabs: yes
-Parking Space= yes</t>
-  </si>
-  <si>
-    <t>20/40/45'  &amp; 53' container sizes
-yes=Ocean Port drayage
-no=Rail Ramp drayage
-yes=Dry container drayage
-yes=Reefer drayage
-yes=Open Top drayage
-yes=Flat Rack drayage
-no=OOG Out-Of-Gauge
-yes=Tank Endorsed Drivers
-no=ISO Tank drayage</t>
-  </si>
-  <si>
-    <t>Mobile terminals</t>
-  </si>
-  <si>
-    <t>AL,FL,GA,MS</t>
-  </si>
-  <si>
-    <t>B R Williams Trucking Inc.
-5360 Commerce Blvd. East
-Mobile, AL  36619   USA</t>
   </si>
   <si>
     <t>Big Trucking LLC
@@ -227,8 +67,11 @@
 x</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>SCAC="BGVI"    TruckerMC# 1171108   USDOT# 3359428
-USDOT Authority Date: for 'Paid' accounts</t>
+USDOT Authority Date: 12/23/2020</t>
   </si>
   <si>
     <t>HAZ-MAT=no
@@ -241,7 +84,7 @@
 AMAZON= yes
 TRANSLOAD SERVICE= no
 CHAINS / BINDERS= no
-Cargo Insurance: $100,000 buy premium to view
+Cargo Insurance: $100,000 view
 Trailer Interchange: $30,000</t>
   </si>
   <si>
@@ -252,9 +95,9 @@
 Other Equipment= 48' flatbed
 Approx 2 drivers  TWIC=yes  ELD=yes
 Company Drivers: 1  Owner Operators: 1
-FMSCA Safer Driver Count: for 'Paid' accounts
-MCS-150 Mileage (Year): for 'Paid' accounts
-Total Inspections: for 'Paid' accounts (two years prior 06/01/2022)
+FMSCA Safer Driver Count: 1
+MCS-150 Mileage (Year): 500 (2019)
+Total Inspections: 2 (two years prior 06/01/2022)
 Day Cabs: no
 Parking Space= yes</t>
   </si>
@@ -274,8 +117,8 @@
   </si>
   <si>
     <t>Black Shark Trucking LLC
-1850 airport blvd
-mobile, AL  36608   USA</t>
+1850 Airport Blvd
+Mobile, AL  36608   USA</t>
   </si>
   <si>
     <t>251-655-0667
@@ -283,7 +126,7 @@
   </si>
   <si>
     <t>SCAC="BSLD"    TruckerMC# 1372580   USDOT# 3807266
-USDOT Authority Date: for 'Paid' accounts</t>
+USDOT Authority Date: 03/14/2022</t>
   </si>
   <si>
     <t>HAZ-MAT=no
@@ -296,20 +139,20 @@
 AMAZON= yes
 TRANSLOAD SERVICE= no
 CHAINS / BINDERS= yes
-Cargo Insurance: $100,000 buy premium to view
+Cargo Insurance: $100,000 view
 Trailer Interchange: $25,000</t>
   </si>
   <si>
-    <t>19-Jun-22</t>
+    <t>11-Jul-22</t>
   </si>
   <si>
     <t>PRIVATE CHASSIS= no
 Other Equipment= flatbed
-Approx 1 drivers  TWIC=yes  ELD=yes
-Company Drivers: 1  
-FMSCA Safer Driver Count: for 'Paid' accounts
-MCS-150 Mileage (Year): for 'Paid' accounts
-Total Inspections: for 'Paid' accounts (two years prior 05/11/2022)
+Approx 3 drivers  TWIC=yes  ELD=yes
+Company Drivers: 3  
+FMSCA Safer Driver Count: 1
+MCS-150 Mileage (Year): 1 (2021)
+Total Inspections: 0 (two years prior 07/10/2022)
 Day Cabs: yes
 Parking Space= yes (6 acres with security)</t>
   </si>
@@ -347,6 +190,9 @@
 tyler.rose@bulldoghiway.com</t>
   </si>
   <si>
+    <t>Mobile terminals</t>
+  </si>
+  <si>
     <t>HAZ-MAT=yes
 OVERWEIGHT PERMIT= yes (max cargo weight 48,000 lbs on 20'; 56,000 lbs on 40')
 LIQUOR / ALCOHOL=no
@@ -357,7 +203,7 @@
 AMAZON= no
 TRANSLOAD SERVICE= no
 CHAINS / BINDERS= yes
-Cargo Insurance: $1,000,000 buy premium to view
+Cargo Insurance: $1,000,000 view
 Trailer Interchange: $65,000</t>
   </si>
   <si>
@@ -365,7 +211,7 @@
   </si>
   <si>
     <t>SCAC="BHEQ"    TruckerMC# 126898   USDOT# 104694
-USDOT Authority Date: for 'Paid' accounts</t>
+USDOT Authority Date: 03/08/1985</t>
   </si>
   <si>
     <t>CAG Contractors LLC
@@ -378,7 +224,7 @@
   </si>
   <si>
     <t>SCAC="CIUB"    TruckerMC# 1218053   USDOT# 3593547
-USDOT Authority Date: for 'Paid' accounts</t>
+USDOT Authority Date: 09/17/2021</t>
   </si>
   <si>
     <t>HAZ-MAT=no
@@ -400,9 +246,9 @@
 Other Equipment= no
 Approx 4 drivers  TWIC=yes  ELD=yes
 Company Drivers: 2  Owner Operators: 2
-FMSCA Safer Driver Count: for 'Paid' accounts
-MCS-150 Mileage (Year): for 'Paid' accounts
-Total Inspections: for 'Paid' accounts (two years prior 02/21/2022)
+FMSCA Safer Driver Count: 1
+MCS-150 Mileage (Year):
+Total Inspections: 1 (two years prior 02/21/2022)
 Day Cabs: no
 Parking Space= no</t>
   </si>
@@ -438,15 +284,15 @@
   </si>
   <si>
     <t>SCAC="EHAQ"    TruckerMC# 1336123   USDOT# 3757218
-USDOT Authority Date: for 'Paid' accounts</t>
+USDOT Authority Date: 01/21/2022</t>
   </si>
   <si>
     <t>PRIVATE CHASSIS= yes (40')
 Approx 5 drivers  TWIC=yes  ELD=yes
 Company Drivers: 5  
-FMSCA Safer Driver Count: for 'Paid' accounts
-MCS-150 Mileage (Year): for 'Paid' accounts
-Total Inspections: for 'Paid' accounts (two years prior 05/22/2022)
+FMSCA Safer Driver Count: 2
+MCS-150 Mileage (Year): 1 (2020)
+Total Inspections: 0 (two years prior 05/22/2022)
 Day Cabs: yes
 Parking Space= yes</t>
   </si>
@@ -456,6 +302,1061 @@
 no=Rail Ramp drayage
 yes=Dry container drayage
 no=Reefer drayage
+no=Open Top drayage
+no=Flat Rack drayage
+no=Tank Endorsed Drivers
+no=ISO Tank drayage</t>
+  </si>
+  <si>
+    <t>AL,FL,GA,MS</t>
+  </si>
+  <si>
+    <t>Harvey Transportation LLC
+3252 Cottage Hill Rd
+Mobile, AL  36606   USA</t>
+  </si>
+  <si>
+    <t>251-508-4290
+x</t>
+  </si>
+  <si>
+    <t>harveytranspot@gmail.com</t>
+  </si>
+  <si>
+    <t>General freight and container drayage; local, regional, and long haul trucking services. and Southeast container transportation for Mobile and Gulfport ports.
+Transloading services available through a separate warehouse.Container drayage for Mobile port</t>
+  </si>
+  <si>
+    <t>SCAC="HTVL"    TruckerMC# 1193183   USDOT# 3556834
+USDOT Authority Date: 10/06/2021</t>
+  </si>
+  <si>
+    <t>PRIVATE CHASSIS= yes (leased 20', 40', 40'ext, and 45')
+Other Equipment= no
+Approx 2 drivers  TWIC=yes  ELD=yes
+Company Drivers: 1  Owner Operators: 1
+FMSCA Safer Driver Count: 1
+MCS-150 Mileage (Year): 1 (2020)
+Total Inspections: 0 (two years prior 04/26/2022)
+Day Cabs: no
+Parking Space= yes (1/2 acre, gated and secure 24/7 monitoring)</t>
+  </si>
+  <si>
+    <t>20/40/45' container sizes
+yes=Ocean Port drayage
+no=Rail Ramp drayage
+yes=Dry container drayage
+yes=Reefer drayage
+yes=Open Top drayage
+yes=Flat Rack drayage
+yes=OOG Out-Of-Gauge
+yes=Tank Endorsed Drivers
+no=ISO Tank drayage</t>
+  </si>
+  <si>
+    <t>48 States</t>
+  </si>
+  <si>
+    <t>J Padd Trucking LLC
+203 Cameron Rd
+Hattiesburg, MS  39402   USA</t>
+  </si>
+  <si>
+    <t>601-447-3721
+x</t>
+  </si>
+  <si>
+    <t>SCAC="JPBB"    TruckerMC# 1110090   USDOT# 3428350
+USDOT Authority Date: 07/22/2020</t>
+  </si>
+  <si>
+    <t>HAZ-MAT=no
+OVERWEIGHT PERMIT= no
+LIQUOR / ALCOHOL=yes
+HOUSEHOLD GOODS=yes
+RESIDENTIAL DELIVERY=yes
+CUSTOMS BONDED= no
+TSA / AIRPORT APPROVED= no
+AMAZON= yes
+TRANSLOAD SERVICE= no
+CHAINS / BINDERS= no</t>
+  </si>
+  <si>
+    <t>2-Mar-22</t>
+  </si>
+  <si>
+    <t>PRIVATE CHASSIS= no
+Other Equipment= 53' dry van
+Approx 3 drivers  TWIC=yes  ELD=yes
+FMSCA Safer Driver Count: 2
+MCS-150 Mileage (Year): 21,652 (2020)
+Total Inspections: 7 (two years prior 02/27/2022)
+Day Cabs: no
+Parking Space= no</t>
+  </si>
+  <si>
+    <t>AL,FL,GA,LA,MS,TX</t>
+  </si>
+  <si>
+    <t>20/40/45' container sizes
+yes=Ocean Port drayage
+no=Rail Ramp drayage
+yes=Dry container drayage
+yes=Reefer drayage
+yes=Open Top drayage
+yes=Flat Rack drayage
+no=OOG Out-Of-Gauge
+yes=Tank Endorsed Drivers
+no=ISO Tank drayage</t>
+  </si>
+  <si>
+    <t>John Fayard Moving &amp; Warehousing, LLC
+10323 Express Drive
+Gulfport, MS  39503   USA</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>Mack Shipping LLC
+1334 Saint Stephens Rd
+Mobile, AL  36603   USA</t>
+  </si>
+  <si>
+    <t>251-408-8142
+x</t>
+  </si>
+  <si>
+    <t>mackshippingllc@gmail.com</t>
+  </si>
+  <si>
+    <t>Port APM Terminal container drayage/import/ export/storage</t>
+  </si>
+  <si>
+    <t>SCAC="MSNY"    TruckerMC# 1289086   USDOT# 3692972
+USDOT Authority Date: 01/12/2022</t>
+  </si>
+  <si>
+    <t>PRIVATE CHASSIS= no
+Approx 3 drivers  TWIC=yes  ELD=yes
+Company Drivers: 2  Owner Operators: 1
+FMSCA Safer Driver Count: 1
+MCS-150 Mileage (Year):
+Total Inspections: 1 (two years prior 07/12/2022)
+Day Cabs: yes
+Parking Space= no</t>
+  </si>
+  <si>
+    <t>Manna Trucking Inc
+2965 Cypress Creek Drive
+D'Iberville, MS  39540   USA</t>
+  </si>
+  <si>
+    <t>219-210-6549
+x</t>
+  </si>
+  <si>
+    <t>SCAC="MNIW"    TruckerMC# 016477   USDOT# 2985725
+USDOT Authority Date: 04/12/2017</t>
+  </si>
+  <si>
+    <t>HAZ-MAT=no
+OVERWEIGHT PERMIT= no
+LIQUOR / ALCOHOL=yes
+HOUSEHOLD GOODS=no
+RESIDENTIAL DELIVERY=no
+CUSTOMS BONDED= no
+TSA / AIRPORT APPROVED= no
+AMAZON= yes
+TRANSLOAD SERVICE= no
+CHAINS / BINDERS= no</t>
+  </si>
+  <si>
+    <t>PRIVATE CHASSIS= no
+Other Equipment= dry van
+Approx 5 drivers  TWIC=yes  ELD=yes
+Company Drivers: 4  Owner Operators: 1
+FMSCA Safer Driver Count: 2
+MCS-150 Mileage (Year): 200,000 (2020)
+Total Inspections: 9 (two years prior 03/01/2022)
+Day Cabs: no
+Parking Space= no</t>
+  </si>
+  <si>
+    <t>AL,MS</t>
+  </si>
+  <si>
+    <t>Port City Transfer LLC
+8325 Padgett Switch Rd
+Irvington, AL  36544   USA</t>
+  </si>
+  <si>
+    <t>251-957-4797
+x</t>
+  </si>
+  <si>
+    <t>SCAC="PCJT"    TruckerMC# 1058343   USDOT# 3324282
+USDOT Authority Date: 09/09/2019</t>
+  </si>
+  <si>
+    <t>HAZ-MAT=no
+OVERWEIGHT PERMIT= yes 90,000 lbs. max
+LIQUOR / ALCOHOL=no
+HOUSEHOLD GOODS=no
+RESIDENTIAL DELIVERY=no
+CUSTOMS BONDED= no
+TSA / AIRPORT APPROVED= no
+AMAZON= yes
+TRANSLOAD SERVICE= no
+Cargo Insurance: $100,000</t>
+  </si>
+  <si>
+    <t>18-Jan-22</t>
+  </si>
+  <si>
+    <t>PRIVATE CHASSIS= yes (6 standard 40ft chassis)
+Other Equipment= 53ft step deck, 48ft flat bed
+Approx 2 drivers  TWIC=yes  ELD=yes
+Company Drivers: 2  Owner Operators: 2
+FMSCA Safer Driver Count: 15
+MCS-150 Mileage (Year): 1,660,000 (2021)
+Total Inspections: 38 (two years prior 04/06/2022)
+Day Cabs: no
+Parking Space= yes</t>
+  </si>
+  <si>
+    <t>AL,FL,GA,LA,MS,TN,TX</t>
+  </si>
+  <si>
+    <t>20/40/45' container sizes
+yes=Ocean Port drayage
+no=Rail Ramp drayage
+yes=Dry container drayage
+no=Reefer drayage
+no=Open Top drayage
+yes=Flat Rack drayage
+yes=OOG Out-Of-Gauge
+yes=Tank Endorsed Drivers
+no=ISO Tank drayage</t>
+  </si>
+  <si>
+    <t>Simple Freight LLC
+915 Weinacker Ave
+Mobile, AL  36605   USA</t>
+  </si>
+  <si>
+    <t>251-648-6693
+x</t>
+  </si>
+  <si>
+    <t>SCAC="SFYV"    TruckerMC# 1359010   USDOT# 3788612
+USDOT Authority Date: 01/20/2022</t>
+  </si>
+  <si>
+    <t>HAZ-MAT=no
+OVERWEIGHT PERMIT= yes 100,000 lbs. max
+LIQUOR / ALCOHOL=no
+HOUSEHOLD GOODS=yes
+RESIDENTIAL DELIVERY=yes
+CUSTOMS BONDED= no
+TSA / AIRPORT APPROVED= no
+AMAZON= yes
+TRANSLOAD SERVICE= yes
+CHAINS / BINDERS= no</t>
+  </si>
+  <si>
+    <t>22-Mar-22</t>
+  </si>
+  <si>
+    <t>PRIVATE CHASSIS= no
+Approx 7 drivers  TWIC=yes  ELD=yes
+Company Drivers: 7  
+FMSCA Safer Driver Count: 2
+MCS-150 Mileage (Year): 1 (2021)
+Total Inspections: 2 (two years prior 03/07/2022)
+Day Cabs: yes
+Parking Space= yes (5 acres)</t>
+  </si>
+  <si>
+    <t>TK Norwood Enterprise LLC
+3055 Heather St
+Mobile, AL  36607   USA</t>
+  </si>
+  <si>
+    <t>251-228-9692
+x</t>
+  </si>
+  <si>
+    <t>Specializing in drayage of containers from APM Terminal Mobile.. local or OTR.. No lane to short or long.. (48 states)</t>
+  </si>
+  <si>
+    <t>SCAC="TNEY"    TruckerMC# 1337658   USDOT# 3759311
+USDOT Authority Date: 01/10/2022</t>
+  </si>
+  <si>
+    <t>HAZ-MAT=no
+OVERWEIGHT PERMIT= yes 90,000 lbs. max
+LIQUOR / ALCOHOL=no
+HOUSEHOLD GOODS=yes
+RESIDENTIAL DELIVERY=yes
+CUSTOMS BONDED= no
+TSA / AIRPORT APPROVED= no
+AMAZON= yes
+TRANSLOAD SERVICE= no
+CHAINS / BINDERS= no
+Cargo Insurance: $100,000 view
+Trailer Interchange: $30,000</t>
+  </si>
+  <si>
+    <t>13-Apr-22</t>
+  </si>
+  <si>
+    <t>PRIVATE CHASSIS= no
+Other Equipment= no
+Approx 3 drivers  TWIC=yes  ELD=yes
+Company Drivers: 3  
+FMSCA Safer Driver Count: 1
+MCS-150 Mileage (Year): 6,600 (2021)
+Total Inspections: 0 (two years prior 06/07/2022)
+Day Cabs: no
+Parking Space= yes</t>
+  </si>
+  <si>
+    <t>Xcell Link LLC
+1312 Shelby Lane
+Ocean Springs, MS  39564   USA</t>
+  </si>
+  <si>
+    <t>228-365-6991
+x</t>
+  </si>
+  <si>
+    <t>john@xcelllink.com</t>
+  </si>
+  <si>
+    <t>Logistics Long and Short haul Intermodal Flatbed,dry van,RGN heavy haul, power only</t>
+  </si>
+  <si>
+    <t>SCAC="XLAF"    TruckerMC# 897101   USDOT# 2568126
+USDOT Authority Date: 01/22/2015</t>
+  </si>
+  <si>
+    <t>PRIVATE CHASSIS= no
+Other Equipment= flatbed, dryvan, RGN lowboy
+Approx 2 drivers  TWIC=yes  ELD=yes
+Company Drivers: 5  Owner Operators: 3
+FMSCA Safer Driver Count: 13
+MCS-150 Mileage (Year): 707,166 (2020)
+Total Inspections: 18 (two years prior 03/07/2022)
+Day Cabs: yes
+Parking Space= no</t>
+  </si>
+  <si>
+    <t>Go Get It Trucking
+620 Bay Bridge Rd
+Mobile, AL  36607   USA</t>
+  </si>
+  <si>
+    <t>251-366-5747
+x</t>
+  </si>
+  <si>
+    <t>SCAC="GGIG"    TruckerMC# 816479   USDOT# 2041750
+USDOT Authority Date: 11/29/2021</t>
+  </si>
+  <si>
+    <t>HAZ-MAT=yes
+OVERWEIGHT PERMIT= no
+LIQUOR / ALCOHOL=yes
+HOUSEHOLD GOODS=yes
+RESIDENTIAL DELIVERY=no
+CUSTOMS BONDED= no
+TSA / AIRPORT APPROVED= no
+AMAZON= yes
+TRANSLOAD SERVICE= no
+CHAINS / BINDERS= no
+Cargo Insurance: $100,000 view
+Trailer Interchange: $50,000</t>
+  </si>
+  <si>
+    <t>29-Jun-22</t>
+  </si>
+  <si>
+    <t>PRIVATE CHASSIS= no
+Approx 6 drivers  TWIC=yes  ELD=yes
+Company Drivers: 6  
+FMSCA Safer Driver Count: 1
+MCS-150 Mileage (Year): 1 (2020)
+Total Inspections: 3 (two years prior 06/27/2022)
+Day Cabs: yes
+Parking Space= no</t>
+  </si>
+  <si>
+    <t>AL Southeast</t>
+  </si>
+  <si>
+    <t>Justin L Walter Transportation LLC
+906 Pinemont Dr
+Mobile, AL  36609   USA</t>
+  </si>
+  <si>
+    <t>251-402-6061
+x</t>
+  </si>
+  <si>
+    <t>SCAC="WJLI"    TruckerMC# 1153820   USDOT# 3498418
+USDOT Authority Date: 11/12/2020</t>
+  </si>
+  <si>
+    <t>HAZ-MAT=no
+OVERWEIGHT PERMIT= yes 100,000 lbs. max
+LIQUOR / ALCOHOL=no
+HOUSEHOLD GOODS=yes
+RESIDENTIAL DELIVERY=no
+CUSTOMS BONDED= no
+TSA / AIRPORT APPROVED= no
+AMAZON= yes
+TRANSLOAD SERVICE= no
+CHAINS / BINDERS= no
+Cargo Insurance: $100,000 view
+Trailer Interchange: $50,000</t>
+  </si>
+  <si>
+    <t>27-May-22</t>
+  </si>
+  <si>
+    <t>PRIVATE CHASSIS= no
+Other Equipment= no
+Approx 3 drivers  TWIC=yes  ELD=yes
+Owner Operators: 3
+FMSCA Safer Driver Count: 2
+MCS-150 Mileage (Year): 2,020 (2020)
+Total Inspections: 4 (two years prior 07/13/2022)
+Day Cabs: no
+Parking Space= yes</t>
+  </si>
+  <si>
+    <t>20/40/45'  &amp; 53' container sizes
+yes=Ocean Port drayage
+yes=Rail Ramp drayage
+yes=Dry container drayage
+no=Reefer drayage
+yes=Open Top drayage
+yes=Flat Rack drayage
+yes=OOG Out-Of-Gauge
+no=Tank Endorsed Drivers
+no=ISO Tank drayage</t>
+  </si>
+  <si>
+    <t>L&amp;D Transport LLC
+3268 Stonegate Circle
+Gautier, MS  39553   USA</t>
+  </si>
+  <si>
+    <t>228-712-4742
+x</t>
+  </si>
+  <si>
+    <t>SCAC="LADW"    TruckerMC# 822268   USDOT# 2392107
+USDOT Authority Date: 05/18/2021</t>
+  </si>
+  <si>
+    <t>HAZ-MAT=no
+OVERWEIGHT PERMIT= no
+LIQUOR / ALCOHOL=yes
+HOUSEHOLD GOODS=yes
+RESIDENTIAL DELIVERY=no
+CUSTOMS BONDED= no
+TSA / AIRPORT APPROVED= no
+AMAZON= yes
+TRANSLOAD SERVICE= no
+CHAINS / BINDERS= yes
+Cargo Insurance: $250,000 view
+Trailer Interchange: $50,000
+Reefer Breakdown: $2,500</t>
+  </si>
+  <si>
+    <t>7-Jul-22</t>
+  </si>
+  <si>
+    <t>PRIVATE CHASSIS= no
+Other Equipment= Flatbed
+Approx 3 drivers  TWIC=yes  ELD=yes
+Company Drivers: 2  Owner Operators: 1
+FMSCA Safer Driver Count: 3
+MCS-150 Mileage (Year): 1 (2020)
+Total Inspections: 4 (two years prior 07/06/2022)
+Day Cabs: no
+Parking Space= no</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>20/40/45' container sizes
+yes=Ocean Port drayage
+no=Rail Ramp drayage
+yes=Dry container drayage
+yes=Reefer drayage
+no=Open Top drayage
+no=Flat Rack drayage
+no=Tank Endorsed Drivers
+yes=ISO Tank drayage</t>
+  </si>
+  <si>
+    <t>Love &amp; Trucking LLC
+4402 St Stephens Rd Suite C
+Eight Mile, AL  36613   USA</t>
+  </si>
+  <si>
+    <t>251-648-6021
+x</t>
+  </si>
+  <si>
+    <t>SCAC="LOTB"    TruckerMC# 1364488   USDOT# 3796057
+USDOT Authority Date: 02/07/2022</t>
+  </si>
+  <si>
+    <t>HAZ-MAT=yes
+OVERWEIGHT PERMIT= no
+LIQUOR / ALCOHOL=yes
+HOUSEHOLD GOODS=yes
+RESIDENTIAL DELIVERY=yes
+CUSTOMS BONDED= no
+TSA / AIRPORT APPROVED= no
+AMAZON= yes
+TRANSLOAD SERVICE= yes
+CHAINS / BINDERS= yes
+Cargo Insurance: $250,000 view
+Trailer Interchange: $50,000
+Reefer Breakdown: $2,500</t>
+  </si>
+  <si>
+    <t>PRIVATE CHASSIS= yes (20ft and 40ft)
+Approx 1 drivers  TWIC=yes  ELD=yes
+Company Drivers: 1  
+FMSCA Safer Driver Count: 2
+MCS-150 Mileage (Year):
+Total Inspections: 0 (two years prior 06/15/2022)
+Day Cabs: no
+Parking Space= yes</t>
+  </si>
+  <si>
+    <t>AL,LA,MS,TX</t>
+  </si>
+  <si>
+    <t>20/40/45'  &amp; 53' container sizes
+yes=Ocean Port drayage
+yes=Rail Ramp drayage
+yes=Dry container drayage
+yes=Reefer drayage
+yes=Open Top drayage
+yes=Flat Rack drayage
+yes=OOG Out-Of-Gauge
+yes=Tank Endorsed Drivers
+yes=ISO Tank drayage</t>
+  </si>
+  <si>
+    <t>Nash Transport LLC
+49 Kennedy Street
+Mobile, AL  36603   USA</t>
+  </si>
+  <si>
+    <t>251-307-2180
+x</t>
+  </si>
+  <si>
+    <t>SCAC="NTAA"    TruckerMC# 1256619   USDOT# 3648413
+USDOT Authority Date: 06/29/2021</t>
+  </si>
+  <si>
+    <t>HAZ-MAT=no
+OVERWEIGHT PERMIT= yes 84,000 lbs. max
+LIQUOR / ALCOHOL=yes
+HOUSEHOLD GOODS=yes
+RESIDENTIAL DELIVERY=yes
+CUSTOMS BONDED= no
+TSA / AIRPORT APPROVED= no
+AMAZON= yes
+TRANSLOAD SERVICE= no
+CHAINS / BINDERS= yes
+Cargo Insurance: $100,000 view
+Trailer Interchange: $40,000</t>
+  </si>
+  <si>
+    <t>24-May-22</t>
+  </si>
+  <si>
+    <t>PRIVATE CHASSIS= yes (Standard)
+Other Equipment= flatbed
+Approx 1 drivers  TWIC=yes  ELD=yes
+Company Drivers: 1  
+FMSCA Safer Driver Count: 1
+MCS-150 Mileage (Year): 1 (2020)
+Total Inspections: 3 (two years prior 07/13/2022)
+Day Cabs: no
+Parking Space= yes (fenced and secure)</t>
+  </si>
+  <si>
+    <t>20/40/45' container sizes
+yes=Ocean Port drayage
+no=Rail Ramp drayage
+yes=Dry container drayage
+yes=Reefer drayage
+no=Open Top drayage
+yes=Flat Rack drayage
+yes=OOG Out-Of-Gauge
+yes=Tank Endorsed Drivers
+no=ISO Tank drayage</t>
+  </si>
+  <si>
+    <t>Newhouse Transportation Services LL
+2751 Hallsmill Rd
+Mobile, AL  36606   USA</t>
+  </si>
+  <si>
+    <t>866-922-1915
+214-289-4906
+972-476-0962</t>
+  </si>
+  <si>
+    <t>allen@newhousetrans.com</t>
+  </si>
+  <si>
+    <t>OTR van and refrigerated; local and OTR drayage for Mobile port.</t>
+  </si>
+  <si>
+    <t>SCAC="NWHI"    TruckerMC# 926676   USDOT# 2782339
+USDOT Authority Date: 08/06/2015</t>
+  </si>
+  <si>
+    <t>PRIVATE CHASSIS= no
+Other Equipment= dry van, reefer
+Approx 3 drivers  TWIC=yes  ELD=yes
+Company Drivers: 3  
+FMSCA Safer Driver Count: 4
+MCS-150 Mileage (Year): 350,000 (2020)
+Total Inspections: 4 (two years prior 06/15/2022)
+Day Cabs: yes
+Parking Space= yes</t>
+  </si>
+  <si>
+    <t>Seven Transportation
+601 Turner Street
+Waynesboro, MS  39367   USA</t>
+  </si>
+  <si>
+    <t>601-410-9372
+x</t>
+  </si>
+  <si>
+    <t>SCAC="SVWT"    TruckerMC# 1410899   USDOT# 3861692
+USDOT Authority Date: 06/16/2022</t>
+  </si>
+  <si>
+    <t>HAZ-MAT=yes
+OVERWEIGHT PERMIT= no
+LIQUOR / ALCOHOL=yes
+HOUSEHOLD GOODS=yes
+RESIDENTIAL DELIVERY=yes
+CUSTOMS BONDED= no
+TSA / AIRPORT APPROVED= no
+AMAZON= yes
+TRANSLOAD SERVICE= no
+CHAINS / BINDERS= no
+Cargo Insurance: $250,000 view
+Accept Credit Cards=yes</t>
+  </si>
+  <si>
+    <t>17-Jun-22</t>
+  </si>
+  <si>
+    <t>PRIVATE CHASSIS= no
+Approx 1 drivers  TWIC=yes  ELD=yes
+Owner Operators: 1
+FMSCA Safer Driver Count: 1
+MCS-150 Mileage (Year):
+Total Inspections: 0 (two years prior 06/15/2022)
+Day Cabs: no
+Parking Space= yes</t>
+  </si>
+  <si>
+    <t>Transport Global Inc
+1865 Sixth Street, 14 West B
+Mobile, AL  36615   USA</t>
+  </si>
+  <si>
+    <t>251-318-0616
+x</t>
+  </si>
+  <si>
+    <t>SCAC="TGIP"    TruckerMC# 1419583   USDOT# 3874567
+USDOT Authority Date: 05/20/2022</t>
+  </si>
+  <si>
+    <t>HAZ-MAT=no
+OVERWEIGHT PERMIT= no
+LIQUOR / ALCOHOL=yes
+HOUSEHOLD GOODS=yes
+RESIDENTIAL DELIVERY=no
+CUSTOMS BONDED= no
+TSA / AIRPORT APPROVED= no
+AMAZON= yes
+TRANSLOAD SERVICE= yes
+CHAINS / BINDERS= no
+Cargo Insurance: $250,000 view
+Trailer Interchange: $50,000
+Reefer Breakdown: $2,500</t>
+  </si>
+  <si>
+    <t>2-Jun-22</t>
+  </si>
+  <si>
+    <t>PRIVATE CHASSIS= no
+Approx 6 drivers  TWIC=yes  ELD=yes
+Company Drivers: 6  
+FMSCA Safer Driver Count: 1
+MCS-150 Mileage (Year):
+Total Inspections: 0 (two years prior 05/31/2022)
+Day Cabs: no
+Parking Space= no</t>
+  </si>
+  <si>
+    <t>48 States no CA</t>
+  </si>
+  <si>
+    <t>Trinity Express LLC
+6613 Sweetbay Ct
+Mobile, AL  36618   USA</t>
+  </si>
+  <si>
+    <t>251-421-2517
+x</t>
+  </si>
+  <si>
+    <t>SCAC="TELE"    TruckerMC# 975123   USDOT# 1846431
+USDOT Authority Date: 10/22/2020</t>
+  </si>
+  <si>
+    <t>HAZ-MAT=yes
+OVERWEIGHT PERMIT= yes
+LIQUOR / ALCOHOL=yes
+HOUSEHOLD GOODS=yes
+RESIDENTIAL DELIVERY=yes
+CUSTOMS BONDED= no
+TSA / AIRPORT APPROVED= no
+AMAZON= yes
+TRANSLOAD SERVICE= no
+CHAINS / BINDERS= yes
+Cargo Insurance: $100,000 view</t>
+  </si>
+  <si>
+    <t>TAG AS: Approved/Vetted --- Banned LIST</t>
+  </si>
+  <si>
+    <t>14-Jun-22</t>
+  </si>
+  <si>
+    <t>Phoenix/Tucson</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>Gaaar LLC
+22769 W. Ashleigh Marie Drive
+Buckeye, AZ  85326   USA</t>
+  </si>
+  <si>
+    <t>626-209-5034
+x</t>
+  </si>
+  <si>
+    <t>SCAC="GRWN"    TruckerMC# 1216194   USDOT# 3590812
+USDOT Authority Date: 05/07/2021</t>
+  </si>
+  <si>
+    <t>HAZ-MAT=yes
+OVERWEIGHT PERMIT= no
+LIQUOR / ALCOHOL=yes
+HOUSEHOLD GOODS=yes
+RESIDENTIAL DELIVERY=yes
+CUSTOMS BONDED= no
+TSA / AIRPORT APPROVED= no
+AMAZON= yes
+TRANSLOAD SERVICE= no
+CHAINS / BINDERS= no
+Cargo Insurance: $100,000 view
+Trailer Interchange: $50,000</t>
+  </si>
+  <si>
+    <t>9-Jun-22</t>
+  </si>
+  <si>
+    <t>PRIVATE CHASSIS= no
+Other Equipment= Belly Dump
+Approx 3 drivers  TWIC=no  ELD=yes
+Company Drivers: 2  Owner Operators: 1
+FMSCA Safer Driver Count: 1
+MCS-150 Mileage (Year): 90,000 (2021)
+Total Inspections: 0 (two years prior 06/05/2022)
+Day Cabs: yes
+Parking Space= yes</t>
+  </si>
+  <si>
+    <t>20/40/45' container sizes
+yes=Rail Ramp drayage
+yes=Dry container drayage
+yes=Reefer drayage
+yes=Open Top drayage
+no=Flat Rack drayage
+no=OOG Out-Of-Gauge
+yes=Tank Endorsed Drivers
+no=ISO Tank drayage</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>1st Class Trucking (E-Freight Trucking Inc.)
+610 W Walnut St
+Compton, CA  90220   USA</t>
+  </si>
+  <si>
+    <t>777 Logistics LLC
+1751 S. Mojave Rd
+Las Vegas, NV  89104   USA</t>
+  </si>
+  <si>
+    <t>702-297-7770
+x</t>
+  </si>
+  <si>
+    <t>ginad@777logistics.com</t>
+  </si>
+  <si>
+    <t>General Freight, power only, Los Angeles-Long Beach port service. Can also ingate Stockton BNSF rails</t>
+  </si>
+  <si>
+    <t>SCAC="SSDO"    TruckerMC# 1192116   USDOT# 3555298
+USDOT Authority Date: 04/05/2021</t>
+  </si>
+  <si>
+    <t>PRIVATE CHASSIS= no
+Other Equipment= no
+Approx 2 drivers  TWIC=yes  ELD=yes
+Company Drivers: 2  
+FMSCA Safer Driver Count: 3
+MCS-150 Mileage (Year): 138,808 (2021)
+Total Inspections: 5 (two years prior 07/10/2022)
+Day Cabs: no
+Parking Space= no</t>
+  </si>
+  <si>
+    <t>20/40/45' container sizes
+yes=Ocean Port drayage
+no=Rail Ramp drayage
+yes=Dry container drayage
+yes=Reefer drayage
+yes=Open Top drayage
+yes=Flat Rack drayage
+no=OOG Out-Of-Gauge
+no=Tank Endorsed Drivers
+no=ISO Tank drayage</t>
+  </si>
+  <si>
+    <t>Los Angeles terminals</t>
+  </si>
+  <si>
+    <t>AZ,CA,NV</t>
+  </si>
+  <si>
+    <t>Access One Transport Inc
+1233 West Gardena Blvd Suite 100
+Gardena, CA  90247   USA</t>
+  </si>
+  <si>
+    <t>Accurate Transport LLC
+9108 Pittsburgh Avenue
+Rancho Cucamonga, CA  91730   USA</t>
+  </si>
+  <si>
+    <t>626-698-8245
+x</t>
+  </si>
+  <si>
+    <t>johnny@accuratetransportllc.com</t>
+  </si>
+  <si>
+    <t>Juan (Johnny) C Ortega - President 626-693-9557
+johnny@accuratetransportllc.com</t>
+  </si>
+  <si>
+    <t>Drayage, LTL, refer, Flatbed,flatbed conestoga, Intermodal, Truck Transportation, devanning, transloading, reworks and warehouse storage,and cross docking</t>
+  </si>
+  <si>
+    <t>20/40/45'  &amp; 53' container sizes
+yes=Ocean Port drayage
+yes=Rail Ramp drayage
+yes=Dry container drayage
+yes=Reefer drayage
+yes=Open Top drayage
+yes=Flat Rack drayage
+no=OOG Out-Of-Gauge
+no=Tank Endorsed Drivers
+no=ISO Tank drayage</t>
+  </si>
+  <si>
+    <t>48 States   (U.S.-Mexico=no)</t>
+  </si>
+  <si>
+    <t>HAZ-MAT=no
+OVERWEIGHT PERMIT= no
+LIQUOR / ALCOHOL=yes
+HOUSEHOLD GOODS=yes
+RESIDENTIAL DELIVERY=yes
+CUSTOMS BONDED= no
+TSA / AIRPORT APPROVED= yes
+AMAZON= yes
+TRANSLOAD SERVICE= yes
+CHAINS / BINDERS= yes
+Established 2014   
+Cargo Insurance: $100,000 view
+Trailer Interchange: $50,000
+Reefer Breakdown: reefer incl.
+Accept Credit Cards=yes
+Languages= English, Spanish</t>
+  </si>
+  <si>
+    <t>Addis Global Express LLC
+2929 Pennsylvania Ave, # 379
+Santa Monica, CA  90404   USA</t>
+  </si>
+  <si>
+    <t>310-654-1009
+310-510-6804</t>
+  </si>
+  <si>
+    <t>SCAC="AIQJ"    TruckerMC# 1269292   USDOT# 3665944</t>
+  </si>
+  <si>
+    <t>HAZ-MAT=no
+OVERWEIGHT PERMIT= no
+LIQUOR / ALCOHOL=no
+HOUSEHOLD GOODS=no
+RESIDENTIAL DELIVERY=no
+CUSTOMS BONDED= no
+TSA / AIRPORT APPROVED= no
+AMAZON= yes
+TRANSLOAD SERVICE= no
+CHAINS / BINDERS= no
+Cargo Insurance: $100,000</t>
+  </si>
+  <si>
+    <t>8-Nov-21</t>
+  </si>
+  <si>
+    <t>PRIVATE CHASSIS= no
+Other Equipment= no
+Approx 1 drivers  TWIC=yes  ELD=yes
+FMSCA Safer Driver Count: 1
+MCS-150 Mileage (Year):
+Total Inspections: (two years prior )
+Day Cabs: no
+Parking Space= no</t>
+  </si>
+  <si>
+    <t>ADP Express LLC
+2988 E Ana St
+Compton, CA  90221   USA</t>
+  </si>
+  <si>
+    <t>310-605-5291
+x</t>
+  </si>
+  <si>
+    <t>sales@adpexpressinc.com</t>
+  </si>
+  <si>
+    <t>Port Drayage + OTR Trucking</t>
+  </si>
+  <si>
+    <t>SCAC="ADXH"    TruckerMC# 086356   USDOT# 3117983
+USDOT Authority Date: 07/12/2018</t>
+  </si>
+  <si>
+    <t>PRIVATE CHASSIS= yes (40/45 extendable)
+Other Equipment= Vans
+Approx 50 drivers  TWIC=yes  ELD=no
+Company Drivers: 12  Owner Operators: 38
+FMSCA Safer Driver Count: 33
+MCS-150 Mileage (Year): 700,000 (2020)
+Total Inspections: 40 (two years prior 03/21/2022)
+Day Cabs: yes
+Parking Space= yes</t>
+  </si>
+  <si>
+    <t>20/40/45' container sizes
+yes=Ocean Port drayage
+yes=Rail Ramp drayage
+yes=Dry container drayage
+yes=Reefer drayage
+yes=Open Top drayage
+yes=Flat Rack drayage
+no=OOG Out-Of-Gauge
+yes=Tank Endorsed Drivers
+no=ISO Tank drayage</t>
+  </si>
+  <si>
+    <t>CA   (U.S.-Mexico=no)</t>
+  </si>
+  <si>
+    <t>Airborne Freight Lines, Inc.
+1100 S. Vail Ave.
+Montebello, CA  90640   USA</t>
+  </si>
+  <si>
+    <t>323-887-9182
+x</t>
+  </si>
+  <si>
+    <t>SCAC="AFGL"    TruckerMC# 554616   USDOT# 1468122
+USDOT Authority Date: 08/08/2007</t>
+  </si>
+  <si>
+    <t>HAZ-MAT=no
+OVERWEIGHT PERMIT= no
+LIQUOR / ALCOHOL=no
+HOUSEHOLD GOODS=no
+RESIDENTIAL DELIVERY=no
+CUSTOMS BONDED= no
+TSA / AIRPORT APPROVED= no
+TRANSLOAD SERVICE= no
+CHAINS / BINDERS= no
+Cargo Insurance: $100,000</t>
+  </si>
+  <si>
+    <t>14-Jul-22</t>
+  </si>
+  <si>
+    <t>PRIVATE CHASSIS= yes (20, 40 spread axle and combo)
+Other Equipment= Dry/Reefer
+Approx 15 drivers  TWIC=yes  ELD=yes
+Owner Operators: 15
+FMSCA Safer Driver Count: 11
+MCS-150 Mileage (Year): 1,000,000 (2020)
+Total Inspections: 18 (two years prior 02/09/2022)
+Day Cabs: no</t>
+  </si>
+  <si>
+    <t>20/40/45' container sizes
+yes=Ocean Port drayage
+no=Rail Ramp drayage
+yes=Dry container drayage
+yes=Reefer drayage
 no=Open Top drayage
 no=Flat Rack drayage
 no=Tank Endorsed Drivers
@@ -499,7 +1400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -581,7 +1482,7 @@
         <v>17</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>17</v>
@@ -589,40 +1490,40 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="H3" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="I3" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="J3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="0" t="s">
         <v>30</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>32</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>17</v>
@@ -630,40 +1531,40 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="F4" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="G4" s="0" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>17</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>17</v>
@@ -671,40 +1572,40 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="0" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>17</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>17</v>
@@ -712,40 +1613,40 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="0" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="K6" s="0" t="s">
         <v>17</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>17</v>
@@ -753,40 +1654,40 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="0" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="K7" s="0" t="s">
         <v>17</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>17</v>
@@ -794,40 +1695,40 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="0" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="K8" s="0" t="s">
         <v>17</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>17</v>
@@ -835,40 +1736,40 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="0" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="K9" s="0" t="s">
         <v>17</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="M9" s="0" t="s">
         <v>17</v>
@@ -876,40 +1777,40 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="0" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="K10" s="0" t="s">
         <v>17</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="M10" s="0" t="s">
         <v>17</v>
@@ -917,42 +1818,903 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="I21" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="M11" s="0" t="s">
+      <c r="J21" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="M23" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="M25" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="M26" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="M27" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="M28" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="M29" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="M30" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="K31" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="M31" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="M32" s="0" t="s">
         <v>17</v>
       </c>
     </row>

--- a/All_ports_details.xlsx
+++ b/All_ports_details.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
   <si>
     <t>City</t>
   </si>
@@ -52,10 +52,170 @@
     <t>Tollfree</t>
   </si>
   <si>
+    <t>Anchorage</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>Lynden Transport
+Anchorage Service Center (ANC)
+3027 Rampart Dr.
+Anchorage, AK  99501   USA</t>
+  </si>
+  <si>
+    <t>800-327-9390
+907-276-4800
+907-257-5160</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Lynden is comprised of several different operating companies, one of which is Lynden Transport who offers trucking throughout Alaska.</t>
+  </si>
+  <si>
+    <t>SCAC="LTIA"    TruckerMC# 65802   USDOT# 8294</t>
+  </si>
+  <si>
+    <t>Approx 15 drivers  ELD=?</t>
+  </si>
+  <si>
+    <t>20/40/45' container sizes
+yes=Ocean Port drayage
+yes=Dry container drayage
+=Reefer drayage
+=Open Top drayage
+=Flat Rack drayage
+=OOG Out-Of-Gauge
+=Tank Endorsed Drivers
+=ISO Tank drayage</t>
+  </si>
+  <si>
+    <t>Anchorage terminals</t>
+  </si>
+  <si>
+    <t>Huntsville</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>Friendly Enterprises, LLC
+451 Bradford Lane
+Huntsville, AL  35811   USA</t>
+  </si>
+  <si>
+    <t>404-900-8560
+x</t>
+  </si>
+  <si>
+    <t>SCAC="FEBT"    TruckerMC# 1317738   USDOT# 3731974
+USDOT Authority Date: 10/25/2021</t>
+  </si>
+  <si>
+    <t>HAZ-MAT=no
+OVERWEIGHT PERMIT= no
+LIQUOR / ALCOHOL=no
+HOUSEHOLD GOODS=yes
+RESIDENTIAL DELIVERY=no
+CUSTOMS BONDED= no
+TSA / AIRPORT APPROVED= no
+AMAZON= yes
+TRANSLOAD SERVICE= no
+CHAINS / BINDERS= no</t>
+  </si>
+  <si>
+    <t>15-Jun-22</t>
+  </si>
+  <si>
+    <t>PRIVATE CHASSIS= no
+Other Equipment= no
+Approx 1 drivers  TWIC=yes  ELD=yes
+Owner Operators: 1
+FMSCA Safer Driver Count: 1
+MCS-150 Mileage (Year):
+Total Inspections: 0 (two years prior 06/14/2022)
+Day Cabs: no
+Parking Space= yes</t>
+  </si>
+  <si>
+    <t>AL,FL,GA,MS,TN</t>
+  </si>
+  <si>
+    <t>20/40/45' container sizes
+yes=Rail Ramp drayage
+yes=Dry container drayage
+yes=Reefer drayage
+no=Open Top drayage
+no=Flat Rack drayage
+no=Tank Endorsed Drivers
+no=ISO Tank drayage</t>
+  </si>
+  <si>
+    <t>White Oak Logistics, Inc.
+2205 Hwy 20 West
+Decatur, AL  35601   USA</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
     <t>Mobile</t>
   </si>
   <si>
-    <t>AL</t>
+    <t>Ann’s Boyz Logistics Inc
+1013 Downtowner Blvd
+Mobile, AL  36609   USA</t>
+  </si>
+  <si>
+    <t>877-789-2182
+770-862-5471
+x</t>
+  </si>
+  <si>
+    <t>twilliams@annsboyzlogisticsinc.com</t>
+  </si>
+  <si>
+    <t>We cover both Mobile &amp; New Orleans ports. We have secured storage yards 7 min. from each port. We handle 20's, 40's, and 45's ft legal as well as overweight containers. Call us today for quote(770)862-5471!!</t>
+  </si>
+  <si>
+    <t>SCAC="ABCE"    TruckerMC# 1328346   USDOT# 3362220
+USDOT Authority Date: 02/02/2022</t>
+  </si>
+  <si>
+    <t>PRIVATE CHASSIS= yes (20,40,&amp; 45)
+Other Equipment= Reefer
+Approx 5 drivers  TWIC=yes  ELD=yes
+Company Drivers: 4  Owner Operators: 1
+FMSCA Safer Driver Count: 10
+MCS-150 Mileage (Year): 1 (2020)
+Total Inspections: 3 (two years prior 06/12/2022)
+Day Cabs: yes
+Parking Space= yes</t>
+  </si>
+  <si>
+    <t>20/40/45'  &amp; 53' container sizes
+yes=Ocean Port drayage
+no=Rail Ramp drayage
+yes=Dry container drayage
+yes=Reefer drayage
+yes=Open Top drayage
+yes=Flat Rack drayage
+no=OOG Out-Of-Gauge
+yes=Tank Endorsed Drivers
+no=ISO Tank drayage</t>
+  </si>
+  <si>
+    <t>Mobile terminals</t>
+  </si>
+  <si>
+    <t>AL,FL,GA,MS</t>
+  </si>
+  <si>
+    <t>B R Williams Trucking Inc.
+5360 Commerce Blvd. East
+Mobile, AL  36619   USA</t>
   </si>
   <si>
     <t>Big Trucking LLC
@@ -65,9 +225,6 @@
   <si>
     <t>251-307-8084
 x</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>SCAC="BGVI"    TruckerMC# 1171108   USDOT# 3359428
@@ -190,9 +347,6 @@
 tyler.rose@bulldoghiway.com</t>
   </si>
   <si>
-    <t>Mobile terminals</t>
-  </si>
-  <si>
     <t>HAZ-MAT=yes
 OVERWEIGHT PERMIT= yes (max cargo weight 48,000 lbs on 20'; 56,000 lbs on 40')
 LIQUOR / ALCOHOL=no
@@ -308,9 +462,6 @@
 no=ISO Tank drayage</t>
   </si>
   <si>
-    <t>AL,FL,GA,MS</t>
-  </si>
-  <si>
     <t>Harvey Transportation LLC
 3252 Cottage Hill Rd
 Mobile, AL  36606   USA</t>
@@ -413,9 +564,6 @@
     <t>John Fayard Moving &amp; Warehousing, LLC
 10323 Express Drive
 Gulfport, MS  39503   USA</t>
-  </si>
-  <si>
-    <t> </t>
   </si>
   <si>
     <t>Mack Shipping LLC
@@ -1172,195 +1320,6 @@
   </si>
   <si>
     <t>AZ,CA,NV</t>
-  </si>
-  <si>
-    <t>Access One Transport Inc
-1233 West Gardena Blvd Suite 100
-Gardena, CA  90247   USA</t>
-  </si>
-  <si>
-    <t>Accurate Transport LLC
-9108 Pittsburgh Avenue
-Rancho Cucamonga, CA  91730   USA</t>
-  </si>
-  <si>
-    <t>626-698-8245
-x</t>
-  </si>
-  <si>
-    <t>johnny@accuratetransportllc.com</t>
-  </si>
-  <si>
-    <t>Juan (Johnny) C Ortega - President 626-693-9557
-johnny@accuratetransportllc.com</t>
-  </si>
-  <si>
-    <t>Drayage, LTL, refer, Flatbed,flatbed conestoga, Intermodal, Truck Transportation, devanning, transloading, reworks and warehouse storage,and cross docking</t>
-  </si>
-  <si>
-    <t>20/40/45'  &amp; 53' container sizes
-yes=Ocean Port drayage
-yes=Rail Ramp drayage
-yes=Dry container drayage
-yes=Reefer drayage
-yes=Open Top drayage
-yes=Flat Rack drayage
-no=OOG Out-Of-Gauge
-no=Tank Endorsed Drivers
-no=ISO Tank drayage</t>
-  </si>
-  <si>
-    <t>48 States   (U.S.-Mexico=no)</t>
-  </si>
-  <si>
-    <t>HAZ-MAT=no
-OVERWEIGHT PERMIT= no
-LIQUOR / ALCOHOL=yes
-HOUSEHOLD GOODS=yes
-RESIDENTIAL DELIVERY=yes
-CUSTOMS BONDED= no
-TSA / AIRPORT APPROVED= yes
-AMAZON= yes
-TRANSLOAD SERVICE= yes
-CHAINS / BINDERS= yes
-Established 2014   
-Cargo Insurance: $100,000 view
-Trailer Interchange: $50,000
-Reefer Breakdown: reefer incl.
-Accept Credit Cards=yes
-Languages= English, Spanish</t>
-  </si>
-  <si>
-    <t>Addis Global Express LLC
-2929 Pennsylvania Ave, # 379
-Santa Monica, CA  90404   USA</t>
-  </si>
-  <si>
-    <t>310-654-1009
-310-510-6804</t>
-  </si>
-  <si>
-    <t>SCAC="AIQJ"    TruckerMC# 1269292   USDOT# 3665944</t>
-  </si>
-  <si>
-    <t>HAZ-MAT=no
-OVERWEIGHT PERMIT= no
-LIQUOR / ALCOHOL=no
-HOUSEHOLD GOODS=no
-RESIDENTIAL DELIVERY=no
-CUSTOMS BONDED= no
-TSA / AIRPORT APPROVED= no
-AMAZON= yes
-TRANSLOAD SERVICE= no
-CHAINS / BINDERS= no
-Cargo Insurance: $100,000</t>
-  </si>
-  <si>
-    <t>8-Nov-21</t>
-  </si>
-  <si>
-    <t>PRIVATE CHASSIS= no
-Other Equipment= no
-Approx 1 drivers  TWIC=yes  ELD=yes
-FMSCA Safer Driver Count: 1
-MCS-150 Mileage (Year):
-Total Inspections: (two years prior )
-Day Cabs: no
-Parking Space= no</t>
-  </si>
-  <si>
-    <t>ADP Express LLC
-2988 E Ana St
-Compton, CA  90221   USA</t>
-  </si>
-  <si>
-    <t>310-605-5291
-x</t>
-  </si>
-  <si>
-    <t>sales@adpexpressinc.com</t>
-  </si>
-  <si>
-    <t>Port Drayage + OTR Trucking</t>
-  </si>
-  <si>
-    <t>SCAC="ADXH"    TruckerMC# 086356   USDOT# 3117983
-USDOT Authority Date: 07/12/2018</t>
-  </si>
-  <si>
-    <t>PRIVATE CHASSIS= yes (40/45 extendable)
-Other Equipment= Vans
-Approx 50 drivers  TWIC=yes  ELD=no
-Company Drivers: 12  Owner Operators: 38
-FMSCA Safer Driver Count: 33
-MCS-150 Mileage (Year): 700,000 (2020)
-Total Inspections: 40 (two years prior 03/21/2022)
-Day Cabs: yes
-Parking Space= yes</t>
-  </si>
-  <si>
-    <t>20/40/45' container sizes
-yes=Ocean Port drayage
-yes=Rail Ramp drayage
-yes=Dry container drayage
-yes=Reefer drayage
-yes=Open Top drayage
-yes=Flat Rack drayage
-no=OOG Out-Of-Gauge
-yes=Tank Endorsed Drivers
-no=ISO Tank drayage</t>
-  </si>
-  <si>
-    <t>CA   (U.S.-Mexico=no)</t>
-  </si>
-  <si>
-    <t>Airborne Freight Lines, Inc.
-1100 S. Vail Ave.
-Montebello, CA  90640   USA</t>
-  </si>
-  <si>
-    <t>323-887-9182
-x</t>
-  </si>
-  <si>
-    <t>SCAC="AFGL"    TruckerMC# 554616   USDOT# 1468122
-USDOT Authority Date: 08/08/2007</t>
-  </si>
-  <si>
-    <t>HAZ-MAT=no
-OVERWEIGHT PERMIT= no
-LIQUOR / ALCOHOL=no
-HOUSEHOLD GOODS=no
-RESIDENTIAL DELIVERY=no
-CUSTOMS BONDED= no
-TSA / AIRPORT APPROVED= no
-TRANSLOAD SERVICE= no
-CHAINS / BINDERS= no
-Cargo Insurance: $100,000</t>
-  </si>
-  <si>
-    <t>14-Jul-22</t>
-  </si>
-  <si>
-    <t>PRIVATE CHASSIS= yes (20, 40 spread axle and combo)
-Other Equipment= Dry/Reefer
-Approx 15 drivers  TWIC=yes  ELD=yes
-Owner Operators: 15
-FMSCA Safer Driver Count: 11
-MCS-150 Mileage (Year): 1,000,000 (2020)
-Total Inspections: 18 (two years prior 02/09/2022)
-Day Cabs: no</t>
-  </si>
-  <si>
-    <t>20/40/45' container sizes
-yes=Ocean Port drayage
-no=Rail Ramp drayage
-yes=Dry container drayage
-yes=Reefer drayage
-no=Open Top drayage
-no=Flat Rack drayage
-no=Tank Endorsed Drivers
-no=ISO Tank drayage</t>
   </si>
 </sst>
 </file>
@@ -1482,7 +1441,7 @@
         <v>17</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>17</v>
@@ -1490,40 +1449,40 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>17</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>17</v>
@@ -1531,40 +1490,40 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>17</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>17</v>
@@ -1572,40 +1531,40 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="0" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C5" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="H5" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="0" t="s">
+      <c r="I5" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="J5" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="K5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="0" t="s">
         <v>44</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>47</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>17</v>
@@ -1613,40 +1572,40 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="0" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="K6" s="0" t="s">
         <v>17</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>17</v>
@@ -1654,40 +1613,40 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="0" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="K7" s="0" t="s">
         <v>17</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>17</v>
@@ -1695,40 +1654,40 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="0" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="K8" s="0" t="s">
         <v>17</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>17</v>
@@ -1736,40 +1695,40 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="0" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="K9" s="0" t="s">
         <v>17</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="M9" s="0" t="s">
         <v>17</v>
@@ -1777,40 +1736,40 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="0" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C10" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="J10" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="K10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="0" t="s">
         <v>76</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" s="0" t="s">
-        <v>63</v>
       </c>
       <c r="M10" s="0" t="s">
         <v>17</v>
@@ -1818,40 +1777,40 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="0" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C11" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="G11" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="0" t="s">
+      <c r="H11" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="I11" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="H11" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>84</v>
-      </c>
       <c r="J11" s="0" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="K11" s="0" t="s">
         <v>17</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="M11" s="0" t="s">
         <v>17</v>
@@ -1859,40 +1818,40 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="0" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C12" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="F12" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="0" t="s">
+      <c r="G12" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="H12" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="I12" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="I12" s="0" t="s">
+      <c r="J12" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="0" t="s">
         <v>91</v>
-      </c>
-      <c r="J12" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="K12" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="L12" s="0" t="s">
-        <v>93</v>
       </c>
       <c r="M12" s="0" t="s">
         <v>17</v>
@@ -1900,40 +1859,40 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="0" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C13" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="G13" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="0" t="s">
+      <c r="H13" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="I13" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="J13" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="I13" s="0" t="s">
+      <c r="K13" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="0" t="s">
         <v>99</v>
-      </c>
-      <c r="J13" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="K13" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="L13" s="0" t="s">
-        <v>47</v>
       </c>
       <c r="M13" s="0" t="s">
         <v>17</v>
@@ -1941,40 +1900,40 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="0" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>100</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="K14" s="0" t="s">
         <v>17</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="M14" s="0" t="s">
         <v>17</v>
@@ -1982,40 +1941,40 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="0" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="K15" s="0" t="s">
         <v>17</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="M15" s="0" t="s">
         <v>17</v>
@@ -2023,40 +1982,40 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="0" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="K16" s="0" t="s">
         <v>17</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="M16" s="0" t="s">
         <v>17</v>
@@ -2064,40 +2023,40 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="0" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C17" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="0" t="s">
         <v>120</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="J17" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="K17" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="L17" s="0" t="s">
-        <v>126</v>
       </c>
       <c r="M17" s="0" t="s">
         <v>17</v>
@@ -2105,40 +2064,40 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="0" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="K18" s="0" t="s">
         <v>17</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="M18" s="0" t="s">
         <v>17</v>
@@ -2146,40 +2105,40 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="0" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>28</v>
+        <v>132</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c r="K19" s="0" t="s">
         <v>17</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="M19" s="0" t="s">
         <v>17</v>
@@ -2187,40 +2146,40 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="0" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>147</v>
+        <v>99</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="K20" s="0" t="s">
         <v>17</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="M20" s="0" t="s">
         <v>17</v>
@@ -2228,40 +2187,40 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="0" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>151</v>
+        <v>17</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>36</v>
+        <v>146</v>
       </c>
       <c r="K21" s="0" t="s">
         <v>17</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="M21" s="0" t="s">
         <v>17</v>
@@ -2269,40 +2228,40 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="0" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="K22" s="0" t="s">
         <v>17</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>62</v>
+        <v>153</v>
       </c>
       <c r="M22" s="0" t="s">
         <v>17</v>
@@ -2310,40 +2269,40 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="0" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C23" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="0" t="s">
         <v>161</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="I23" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="J23" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="K23" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="L23" s="0" t="s">
-        <v>71</v>
       </c>
       <c r="M23" s="0" t="s">
         <v>17</v>
@@ -2351,40 +2310,40 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="0" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C24" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" s="0" t="s">
         <v>168</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="I24" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="J24" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K24" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="L24" s="0" t="s">
-        <v>71</v>
       </c>
       <c r="M24" s="0" t="s">
         <v>17</v>
@@ -2392,40 +2351,40 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="I25" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="J25" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25" s="0" t="s">
         <v>175</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="I25" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="J25" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="K25" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="L25" s="0" t="s">
-        <v>182</v>
       </c>
       <c r="M25" s="0" t="s">
         <v>17</v>
@@ -2433,40 +2392,40 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="0" t="s">
-        <v>183</v>
+        <v>35</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>184</v>
+        <v>24</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>73</v>
+        <v>177</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>17</v>
+        <v>178</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>17</v>
+        <v>179</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>17</v>
+        <v>180</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>17</v>
+        <v>181</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="K26" s="0" t="s">
         <v>17</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="M26" s="0" t="s">
         <v>17</v>
@@ -2474,40 +2433,40 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="D27" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="E27" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="G27" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="H27" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="I27" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="E27" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="G27" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="I27" s="0" t="s">
-        <v>192</v>
-      </c>
       <c r="J27" s="0" t="s">
-        <v>193</v>
+        <v>91</v>
       </c>
       <c r="K27" s="0" t="s">
         <v>17</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>194</v>
+        <v>90</v>
       </c>
       <c r="M27" s="0" t="s">
         <v>17</v>
@@ -2515,40 +2474,40 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="0" t="s">
-        <v>183</v>
+        <v>35</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>184</v>
+        <v>24</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>73</v>
+        <v>189</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>188</v>
+        <v>17</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>17</v>
+        <v>190</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>17</v>
+        <v>191</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>17</v>
+        <v>192</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>17</v>
+        <v>193</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>17</v>
+        <v>194</v>
       </c>
       <c r="K28" s="0" t="s">
         <v>17</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="M28" s="0" t="s">
         <v>17</v>
@@ -2556,40 +2515,40 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="0" t="s">
-        <v>183</v>
+        <v>35</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>184</v>
+        <v>24</v>
       </c>
       <c r="C29" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="D29" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="E29" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="G29" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="H29" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="G29" s="0" t="s">
+      <c r="I29" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="H29" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>202</v>
-      </c>
       <c r="J29" s="0" t="s">
-        <v>203</v>
+        <v>168</v>
       </c>
       <c r="K29" s="0" t="s">
         <v>17</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>193</v>
+        <v>99</v>
       </c>
       <c r="M29" s="0" t="s">
         <v>17</v>
@@ -2597,40 +2556,40 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="0" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="C30" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="D30" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="E30" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="E30" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="0" t="s">
+      <c r="G30" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="G30" s="0" t="s">
+      <c r="H30" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="H30" s="0" t="s">
+      <c r="I30" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="I30" s="0" t="s">
+      <c r="J30" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" s="0" t="s">
         <v>209</v>
-      </c>
-      <c r="J30" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="K30" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="L30" s="0" t="s">
-        <v>54</v>
       </c>
       <c r="M30" s="0" t="s">
         <v>17</v>
@@ -2638,40 +2597,40 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="0" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>211</v>
+        <v>34</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>212</v>
+        <v>17</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>213</v>
+        <v>17</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>214</v>
+        <v>17</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>215</v>
+        <v>17</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>216</v>
+        <v>17</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>193</v>
+        <v>17</v>
       </c>
       <c r="K31" s="0" t="s">
         <v>17</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>217</v>
+        <v>17</v>
       </c>
       <c r="M31" s="0" t="s">
         <v>17</v>
@@ -2679,40 +2638,40 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="0" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="C32" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="H32" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="I32" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="E32" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="0" t="s">
+      <c r="J32" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="G32" s="0" t="s">
+      <c r="K32" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32" s="0" t="s">
         <v>221</v>
-      </c>
-      <c r="H32" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="I32" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="J32" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="K32" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="L32" s="0" t="s">
-        <v>224</v>
       </c>
       <c r="M32" s="0" t="s">
         <v>17</v>
